--- a/API_Endpoints.xlsx
+++ b/API_Endpoints.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="API Endpoints"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t xml:space="preserve"> Example API Endpoints</t>
+  </si>
   <si>
     <t>Endpoint</t>
   </si>
@@ -34,22 +37,19 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Fetch all products</t>
-  </si>
-  <si>
-    <t>{ "id": 1, "name": "Product A", "price": 100 }</t>
-  </si>
-  <si>
-    <t>/orders</t>
+    <t>Fetch all product details</t>
+  </si>
+  <si>
+    <t>{ "id": 1, "name": "Product A", "price": 100}</t>
+  </si>
+  <si>
+    <t>/order</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Create a new order</t>
-  </si>
-  <si>
-    <t>{ "orderId": 123, "status": "Success" }</t>
+    <t xml:space="preserve"> { "orderId": 123, "status": "Success"}</t>
   </si>
 </sst>
 </file>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,9 +66,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="36"/>
+      <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF5b9bd5"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -90,34 +116,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -144,28 +189,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -421,61 +466,431 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="49.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:Q8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>